--- a/Expedia Templates/BMC/BMC1/EXPORT FeeSet Cloud Export.xlsx
+++ b/Expedia Templates/BMC/BMC1/EXPORT FeeSet Cloud Export.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\github-repositories\core_ota\Expedia Templates\BMC\BMC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/BMC/BMC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED59DFFF-E256-4D3C-9E7B-6BA27EF213C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F47217D-6FFA-9348-9622-0D3804D65583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="25755" windowHeight="14340" xr2:uid="{0C9CEB83-5AA4-554F-B1BB-F9E118B3AFFC}"/>
+    <workbookView xWindow="5280" yWindow="5280" windowWidth="25760" windowHeight="14340" xr2:uid="{0C9CEB83-5AA4-554F-B1BB-F9E118B3AFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,24 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Hotel ID</t>
-  </si>
-  <si>
-    <t>Exclude Inactive Rate Plan</t>
-  </si>
-  <si>
-    <t>Exclude Past Date Record</t>
-  </si>
-  <si>
-    <t>Exclude Inactive Fee Set</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -130,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,46 +411,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9093B3A2-B31B-6243-A43B-FB4B3DAD002D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
